--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1612272.584318376</v>
+        <v>1608064.368366773</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2284470.912813043</v>
+        <v>2327352.096509268</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791238</v>
+        <v>419463.0933791253</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9327128.730591528</v>
+        <v>9323237.751814133</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>213.0431249246635</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>310.4074376261191</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.14560495327519</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -744,13 +744,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>19.57678118023404</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>92.73469553428545</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>100.2698474393479</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>350.8382415554613</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>196.6816589672252</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>88.47489288625047</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>182.8837759667304</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>61.39345098864458</v>
       </c>
       <c r="E7" t="n">
-        <v>1.089140488075268</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>247.5513924228885</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>298.3390416644457</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1312,7 +1312,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>316.9394767830359</v>
       </c>
       <c r="C11" t="n">
-        <v>306.5882532979251</v>
+        <v>309.6934250108517</v>
       </c>
       <c r="D11" t="n">
-        <v>298.9312243113254</v>
+        <v>302.0363960242519</v>
       </c>
       <c r="E11" t="n">
-        <v>315.9021964504474</v>
+        <v>319.0073681633739</v>
       </c>
       <c r="F11" t="n">
-        <v>330.0700009011484</v>
+        <v>333.175172614075</v>
       </c>
       <c r="G11" t="n">
-        <v>326.3756347727033</v>
+        <v>329.4808064856298</v>
       </c>
       <c r="H11" t="n">
-        <v>238.1867267450007</v>
+        <v>199.6662045337844</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.40342426721281</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.1929263241864</v>
+        <v>85.29809803711294</v>
       </c>
       <c r="T11" t="n">
-        <v>138.610103232004</v>
+        <v>141.7152749449305</v>
       </c>
       <c r="U11" t="n">
-        <v>126.0077105709068</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>256.0302480193433</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>284.6335514972219</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>306.0077575450267</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.8703088044314</v>
+        <v>312.9754805173579</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.7004453202147</v>
+        <v>53.04156130143855</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88.95274528342367</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74.52646049526339</v>
       </c>
       <c r="E13" t="n">
-        <v>71.34773083521597</v>
+        <v>74.4529025481425</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>76.20235396790977</v>
       </c>
       <c r="G13" t="n">
-        <v>83.91602017737537</v>
+        <v>87.02119189030191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.26827234394742</v>
+        <v>74.37344405687395</v>
       </c>
       <c r="I13" t="n">
-        <v>49.10798792511935</v>
+        <v>52.21315963804588</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.00648628957526</v>
+        <v>43.1116580025018</v>
       </c>
       <c r="S13" t="n">
-        <v>118.1324297951026</v>
+        <v>121.2376015080291</v>
       </c>
       <c r="T13" t="n">
-        <v>150.7063681292747</v>
+        <v>153.8115398422012</v>
       </c>
       <c r="U13" t="n">
-        <v>199.9289106563445</v>
+        <v>203.0340823692711</v>
       </c>
       <c r="V13" t="n">
-        <v>180.6640585432105</v>
+        <v>183.769230256137</v>
       </c>
       <c r="W13" t="n">
-        <v>157.9535548897389</v>
+        <v>200.9467765768871</v>
       </c>
       <c r="X13" t="n">
-        <v>149.0840258106732</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.2254473873495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>313.8343050701094</v>
+        <v>316.9394767830359</v>
       </c>
       <c r="C14" t="n">
-        <v>306.5882532979251</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>298.9312243113254</v>
+        <v>302.0363960242519</v>
       </c>
       <c r="E14" t="n">
-        <v>236.5809980564185</v>
+        <v>319.0073681633739</v>
       </c>
       <c r="F14" t="n">
-        <v>330.0700009011484</v>
+        <v>333.175172614075</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>329.4808064856298</v>
       </c>
       <c r="H14" t="n">
-        <v>238.1867267450007</v>
+        <v>161.6041858143616</v>
       </c>
       <c r="I14" t="n">
-        <v>54.29825255428628</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.1929263241864</v>
+        <v>85.29809803711294</v>
       </c>
       <c r="T14" t="n">
-        <v>138.610103232004</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.5397090855738</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>256.0302480193433</v>
+        <v>259.1354197322698</v>
       </c>
       <c r="W14" t="n">
-        <v>284.6335514972219</v>
+        <v>287.7387232101484</v>
       </c>
       <c r="X14" t="n">
-        <v>302.9025858321002</v>
+        <v>306.0077575450267</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>312.9754805173579</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.7004453202147</v>
+        <v>16.24119826528658</v>
       </c>
       <c r="C16" t="n">
-        <v>85.84757357049713</v>
+        <v>88.95274528342367</v>
       </c>
       <c r="D16" t="n">
-        <v>71.42128878233686</v>
+        <v>74.52646049526339</v>
       </c>
       <c r="E16" t="n">
-        <v>71.34773083521597</v>
+        <v>74.4529025481425</v>
       </c>
       <c r="F16" t="n">
-        <v>73.09718225498324</v>
+        <v>76.20235396790977</v>
       </c>
       <c r="G16" t="n">
-        <v>83.91602017737537</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>71.26827234394742</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10798792511935</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.00648628957526</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.1324297951026</v>
+        <v>121.2376015080291</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>153.8115398422012</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9289106563445</v>
+        <v>203.0340823692711</v>
       </c>
       <c r="V16" t="n">
-        <v>180.6640585432105</v>
+        <v>183.769230256137</v>
       </c>
       <c r="W16" t="n">
-        <v>197.8416048639606</v>
+        <v>200.9467765768871</v>
       </c>
       <c r="X16" t="n">
-        <v>29.53629935790879</v>
+        <v>152.1891975235997</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.2254473873495</v>
+        <v>141.3306191002761</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>16.14696237312474</v>
+        <v>141.4622509869589</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>98.49977972281503</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>16.42118848658616</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059378</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>760.9349736180336</v>
+        <v>1626.115196076655</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7594721209642</v>
+        <v>1626.115196076655</v>
       </c>
       <c r="D2" t="n">
-        <v>367.7594721209642</v>
+        <v>1410.920120395177</v>
       </c>
       <c r="E2" t="n">
-        <v>367.7594721209642</v>
+        <v>1008.336595511722</v>
       </c>
       <c r="F2" t="n">
-        <v>354.905437691346</v>
+        <v>591.4421570416994</v>
       </c>
       <c r="G2" t="n">
-        <v>41.36257140233673</v>
+        <v>178.2794015297025</v>
       </c>
       <c r="H2" t="n">
-        <v>41.36257140233673</v>
+        <v>178.2794015297025</v>
       </c>
       <c r="I2" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="J2" t="n">
-        <v>41.36257140233673</v>
+        <v>184.5920575309955</v>
       </c>
       <c r="K2" t="n">
-        <v>400.3449274297986</v>
+        <v>543.5744135584573</v>
       </c>
       <c r="L2" t="n">
-        <v>893.6652191483274</v>
+        <v>1036.894705276986</v>
       </c>
       <c r="M2" t="n">
-        <v>893.6652191483274</v>
+        <v>1531.180477476307</v>
       </c>
       <c r="N2" t="n">
-        <v>1405.527040252244</v>
+        <v>1648.926738976846</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.566641144573</v>
+        <v>1648.926738976846</v>
       </c>
       <c r="P2" t="n">
-        <v>2068.128570116837</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="Q2" t="n">
-        <v>2068.128570116837</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="R2" t="n">
-        <v>2030.135656402359</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="S2" t="n">
-        <v>2030.135656402359</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="T2" t="n">
-        <v>1806.635053961775</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="U2" t="n">
-        <v>1550.882324396374</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="V2" t="n">
-        <v>1550.882324396374</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="W2" t="n">
-        <v>1550.882324396374</v>
+        <v>1626.115196076655</v>
       </c>
       <c r="X2" t="n">
-        <v>1161.429719329431</v>
+        <v>1626.115196076655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1161.429719329431</v>
+        <v>1626.115196076655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.7285545423676</v>
+        <v>478.1446792727631</v>
       </c>
       <c r="C3" t="n">
-        <v>690.0743241024599</v>
+        <v>327.4904488328553</v>
       </c>
       <c r="D3" t="n">
-        <v>559.9853567239402</v>
+        <v>197.4014814543357</v>
       </c>
       <c r="E3" t="n">
-        <v>423.538865834828</v>
+        <v>177.6269550096548</v>
       </c>
       <c r="F3" t="n">
-        <v>299.1070597179598</v>
+        <v>177.6269550096548</v>
       </c>
       <c r="G3" t="n">
-        <v>179.0472417898242</v>
+        <v>177.6269550096548</v>
       </c>
       <c r="H3" t="n">
-        <v>90.74982539042514</v>
+        <v>89.32953861025577</v>
       </c>
       <c r="I3" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="J3" t="n">
-        <v>41.36257140233673</v>
+        <v>153.0572668418947</v>
       </c>
       <c r="K3" t="n">
-        <v>41.36257140233673</v>
+        <v>472.7964129041212</v>
       </c>
       <c r="L3" t="n">
-        <v>41.36257140233673</v>
+        <v>956.3624988024344</v>
       </c>
       <c r="M3" t="n">
-        <v>404.4184676377146</v>
+        <v>1268.463367354156</v>
       </c>
       <c r="N3" t="n">
-        <v>916.2802887416317</v>
+        <v>1762.749139553477</v>
       </c>
       <c r="O3" t="n">
-        <v>1428.142109845549</v>
+        <v>1762.749139553477</v>
       </c>
       <c r="P3" t="n">
-        <v>1833.763478561946</v>
+        <v>1762.749139553477</v>
       </c>
       <c r="Q3" t="n">
-        <v>2068.128570116837</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="R3" t="n">
-        <v>2044.211527014901</v>
+        <v>1973.197188006432</v>
       </c>
       <c r="S3" t="n">
-        <v>1909.28084991477</v>
+        <v>1838.266510906301</v>
       </c>
       <c r="T3" t="n">
-        <v>1732.297038113679</v>
+        <v>1661.28269910521</v>
       </c>
       <c r="U3" t="n">
-        <v>1522.23389479232</v>
+        <v>1451.219555783852</v>
       </c>
       <c r="V3" t="n">
-        <v>1299.693893163387</v>
+        <v>1228.679554154919</v>
       </c>
       <c r="W3" t="n">
-        <v>1069.576647296674</v>
+        <v>998.5623082882055</v>
       </c>
       <c r="X3" t="n">
-        <v>880.269569646686</v>
+        <v>809.2552306382172</v>
       </c>
       <c r="Y3" t="n">
-        <v>880.269569646686</v>
+        <v>629.9410137137245</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="C4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="D4" t="n">
-        <v>685.8938066652445</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="E4" t="n">
-        <v>685.8938066652445</v>
+        <v>521.0008243482548</v>
       </c>
       <c r="F4" t="n">
-        <v>528.5678718782174</v>
+        <v>363.6748895612278</v>
       </c>
       <c r="G4" t="n">
-        <v>360.3138179776629</v>
+        <v>195.4208356606734</v>
       </c>
       <c r="H4" t="n">
-        <v>204.8352669391569</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="I4" t="n">
-        <v>71.74084157623479</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="J4" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="K4" t="n">
-        <v>123.1976125122786</v>
+        <v>121.7773257321092</v>
       </c>
       <c r="L4" t="n">
-        <v>287.3252523860784</v>
+        <v>285.904965605909</v>
       </c>
       <c r="M4" t="n">
-        <v>473.6168307243424</v>
+        <v>472.1965439441731</v>
       </c>
       <c r="N4" t="n">
-        <v>656.8064647555516</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O4" t="n">
-        <v>819.5112317972596</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P4" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R4" t="n">
-        <v>841.5269197627297</v>
+        <v>817.4883177962968</v>
       </c>
       <c r="S4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="T4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="U4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="V4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="W4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="X4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="Y4" t="n">
-        <v>841.5269197627297</v>
+        <v>614.6722339788462</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>642.3287667621355</v>
+        <v>1361.261778532007</v>
       </c>
       <c r="C5" t="n">
-        <v>249.1532652650661</v>
+        <v>1361.261778532007</v>
       </c>
       <c r="D5" t="n">
-        <v>249.1532652650661</v>
+        <v>1006.879716354773</v>
       </c>
       <c r="E5" t="n">
-        <v>249.1532652650661</v>
+        <v>604.2961914713176</v>
       </c>
       <c r="F5" t="n">
-        <v>50.48492287392951</v>
+        <v>591.4421570416994</v>
       </c>
       <c r="G5" t="n">
-        <v>41.36257140233673</v>
+        <v>178.2794015297025</v>
       </c>
       <c r="H5" t="n">
-        <v>41.36257140233673</v>
+        <v>178.2794015297025</v>
       </c>
       <c r="I5" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="J5" t="n">
-        <v>186.0123443111648</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="K5" t="n">
-        <v>186.0123443111648</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="L5" t="n">
-        <v>679.3326360296937</v>
+        <v>533.2625763406962</v>
       </c>
       <c r="M5" t="n">
-        <v>1191.194457133611</v>
+        <v>1027.548348540017</v>
       </c>
       <c r="N5" t="n">
-        <v>1703.056278237528</v>
+        <v>1521.834120739338</v>
       </c>
       <c r="O5" t="n">
-        <v>1719.941077985315</v>
+        <v>1961.873721631667</v>
       </c>
       <c r="P5" t="n">
-        <v>2068.128570116837</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="Q5" t="n">
-        <v>2068.128570116837</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="R5" t="n">
-        <v>2030.135656402359</v>
+        <v>1959.12131739389</v>
       </c>
       <c r="S5" t="n">
-        <v>2030.135656402359</v>
+        <v>1959.12131739389</v>
       </c>
       <c r="T5" t="n">
-        <v>2030.135656402359</v>
+        <v>1959.12131739389</v>
       </c>
       <c r="U5" t="n">
-        <v>1774.382926836957</v>
+        <v>1703.368587828488</v>
       </c>
       <c r="V5" t="n">
-        <v>1432.276117540476</v>
+        <v>1361.261778532007</v>
       </c>
       <c r="W5" t="n">
-        <v>1432.276117540476</v>
+        <v>1361.261778532007</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.823512473532</v>
+        <v>1361.261778532007</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.823512473532</v>
+        <v>1361.261778532007</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549.159018281232</v>
+        <v>839.3082677621983</v>
       </c>
       <c r="C6" t="n">
-        <v>398.5047878413242</v>
+        <v>688.6540373222905</v>
       </c>
       <c r="D6" t="n">
-        <v>268.4158204628045</v>
+        <v>558.5650699437708</v>
       </c>
       <c r="E6" t="n">
-        <v>179.0472417898242</v>
+        <v>422.1185790546586</v>
       </c>
       <c r="F6" t="n">
-        <v>179.0472417898242</v>
+        <v>297.6867729377904</v>
       </c>
       <c r="G6" t="n">
-        <v>179.0472417898242</v>
+        <v>177.6269550096548</v>
       </c>
       <c r="H6" t="n">
-        <v>90.74982539042514</v>
+        <v>89.32953861025577</v>
       </c>
       <c r="I6" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="J6" t="n">
-        <v>41.36257140233673</v>
+        <v>153.0572668418947</v>
       </c>
       <c r="K6" t="n">
-        <v>361.1017174645632</v>
+        <v>472.7964129041212</v>
       </c>
       <c r="L6" t="n">
-        <v>404.4184676377146</v>
+        <v>472.7964129041212</v>
       </c>
       <c r="M6" t="n">
-        <v>916.2802887416317</v>
+        <v>967.0821851034423</v>
       </c>
       <c r="N6" t="n">
-        <v>1428.142109845549</v>
+        <v>1268.463367354156</v>
       </c>
       <c r="O6" t="n">
-        <v>1428.142109845549</v>
+        <v>1762.749139553477</v>
       </c>
       <c r="P6" t="n">
-        <v>1833.763478561946</v>
+        <v>1762.749139553477</v>
       </c>
       <c r="Q6" t="n">
-        <v>2068.128570116837</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="R6" t="n">
-        <v>2044.211527014901</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="S6" t="n">
-        <v>1909.28084991477</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="T6" t="n">
-        <v>1732.297038113679</v>
+        <v>1997.114231108368</v>
       </c>
       <c r="U6" t="n">
-        <v>1522.23389479232</v>
+        <v>1812.383144273287</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.693893163387</v>
+        <v>1589.843142644354</v>
       </c>
       <c r="W6" t="n">
-        <v>1069.576647296674</v>
+        <v>1359.725896777641</v>
       </c>
       <c r="X6" t="n">
-        <v>880.269569646686</v>
+        <v>1170.418819127652</v>
       </c>
       <c r="Y6" t="n">
-        <v>700.9553527221933</v>
+        <v>991.1046022031596</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523.5212530355709</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="C7" t="n">
-        <v>523.5212530355709</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="D7" t="n">
-        <v>523.5212530355709</v>
+        <v>676.5596364890523</v>
       </c>
       <c r="E7" t="n">
-        <v>522.4211111284242</v>
+        <v>521.0008243482548</v>
       </c>
       <c r="F7" t="n">
-        <v>365.0951763413972</v>
+        <v>363.6748895612278</v>
       </c>
       <c r="G7" t="n">
-        <v>196.8411224408428</v>
+        <v>195.4208356606734</v>
       </c>
       <c r="H7" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="I7" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="J7" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216736</v>
       </c>
       <c r="K7" t="n">
-        <v>123.1976125122786</v>
+        <v>121.7773257321092</v>
       </c>
       <c r="L7" t="n">
-        <v>287.3252523860784</v>
+        <v>285.904965605909</v>
       </c>
       <c r="M7" t="n">
-        <v>473.6168307243424</v>
+        <v>472.1965439441731</v>
       </c>
       <c r="N7" t="n">
-        <v>656.8064647555516</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O7" t="n">
-        <v>819.5112317972596</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P7" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="S7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="T7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="U7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="V7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="W7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="X7" t="n">
-        <v>708.7292717268722</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.7292717268722</v>
+        <v>738.5732233462691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.036739400527</v>
+        <v>1116.842844993293</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.036739400527</v>
+        <v>1116.842844993293</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>1116.842844993293</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>714.2593201098371</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>297.3648816398148</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>353.2546601492718</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>846.5749518678007</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.036739400527</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.036739400527</v>
+        <v>1116.842844993293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.036739400527</v>
+        <v>1116.842844993293</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1896.517144349116</v>
+        <v>1931.273468208338</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.832040007777</v>
+        <v>1618.451826783235</v>
       </c>
       <c r="D11" t="n">
-        <v>1284.881308380176</v>
+        <v>1313.364558071869</v>
       </c>
       <c r="E11" t="n">
-        <v>965.7881806524513</v>
+        <v>991.1348932603803</v>
       </c>
       <c r="F11" t="n">
-        <v>632.3841393381599</v>
+        <v>654.5943148623248</v>
       </c>
       <c r="G11" t="n">
-        <v>302.711780981894</v>
+        <v>321.7854194222946</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>120.102384539684</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.933227302557</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="T11" t="n">
-        <v>2882.923022017705</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.642506289516</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.026094148765</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="W11" t="n">
-        <v>2209.517456272784</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="X11" t="n">
-        <v>2209.517456272784</v>
+        <v>2567.5512028552</v>
       </c>
       <c r="Y11" t="n">
-        <v>1896.517144349116</v>
+        <v>2251.414353847768</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
         <v>1458.313011372373</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>340.5433815239724</v>
+        <v>595.192115461652</v>
       </c>
       <c r="C13" t="n">
-        <v>340.5433815239724</v>
+        <v>505.3408575996079</v>
       </c>
       <c r="D13" t="n">
-        <v>340.5433815239724</v>
+        <v>430.0616045740893</v>
       </c>
       <c r="E13" t="n">
-        <v>268.4749665389057</v>
+        <v>354.8566525052585</v>
       </c>
       <c r="F13" t="n">
-        <v>268.4749665389057</v>
+        <v>277.8845777901981</v>
       </c>
       <c r="G13" t="n">
-        <v>183.711309794082</v>
+        <v>189.9843839616103</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7231559113068</v>
+        <v>114.859692995071</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>114.1743233590098</v>
+        <v>111.1002033632126</v>
       </c>
       <c r="K13" t="n">
-        <v>277.8383027212835</v>
+        <v>271.690062729689</v>
       </c>
       <c r="L13" t="n">
-        <v>523.7948808474151</v>
+        <v>514.5725208600234</v>
       </c>
       <c r="M13" t="n">
-        <v>791.9153974380109</v>
+        <v>779.6189174548219</v>
       </c>
       <c r="N13" t="n">
-        <v>1056.933969721552</v>
+        <v>1041.563369742566</v>
       </c>
       <c r="O13" t="n">
-        <v>1301.467675015592</v>
+        <v>1283.022955040808</v>
       </c>
       <c r="P13" t="n">
-        <v>1503.172779044502</v>
+        <v>1481.653939073921</v>
       </c>
       <c r="Q13" t="n">
-        <v>1588.423913666885</v>
+        <v>1563.830953700507</v>
       </c>
       <c r="R13" t="n">
-        <v>1548.013321455193</v>
+        <v>1520.28382440505</v>
       </c>
       <c r="S13" t="n">
-        <v>1428.687634793473</v>
+        <v>1397.821600659566</v>
       </c>
       <c r="T13" t="n">
-        <v>1276.458980117438</v>
+        <v>1242.456408899767</v>
       </c>
       <c r="U13" t="n">
-        <v>1074.51058551507</v>
+        <v>1037.371477213635</v>
       </c>
       <c r="V13" t="n">
-        <v>892.0216374916251</v>
+        <v>851.7459921064255</v>
       </c>
       <c r="W13" t="n">
-        <v>732.4725921484545</v>
+        <v>648.7694501095697</v>
       </c>
       <c r="X13" t="n">
-        <v>581.8826670871686</v>
+        <v>648.7694501095697</v>
       </c>
       <c r="Y13" t="n">
-        <v>442.2610030595428</v>
+        <v>648.7694501095697</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1541.569083124424</v>
+        <v>1522.022086392694</v>
       </c>
       <c r="C14" t="n">
-        <v>1231.883978783085</v>
+        <v>1522.022086392694</v>
       </c>
       <c r="D14" t="n">
-        <v>929.9332471554836</v>
+        <v>1216.934817681328</v>
       </c>
       <c r="E14" t="n">
-        <v>690.9625420479897</v>
+        <v>894.7051528698394</v>
       </c>
       <c r="F14" t="n">
-        <v>357.5585007336983</v>
+        <v>558.1645744717838</v>
       </c>
       <c r="G14" t="n">
-        <v>357.5585007336983</v>
+        <v>225.3556790317536</v>
       </c>
       <c r="H14" t="n">
-        <v>116.9658474559199</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3022.933227302557</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="T14" t="n">
-        <v>2882.923022017705</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="U14" t="n">
-        <v>2710.660689608035</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="V14" t="n">
-        <v>2452.044277467284</v>
+        <v>2758.043740994279</v>
       </c>
       <c r="W14" t="n">
-        <v>2164.535639591302</v>
+        <v>2467.398566034533</v>
       </c>
       <c r="X14" t="n">
-        <v>1858.57343168009</v>
+        <v>2158.299821039556</v>
       </c>
       <c r="Y14" t="n">
-        <v>1858.57343168009</v>
+        <v>1842.162972032124</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>830.5413617456916</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.2363558753028</v>
+        <v>379.4266653755694</v>
       </c>
       <c r="C16" t="n">
-        <v>486.5216350970229</v>
+        <v>289.5754075135253</v>
       </c>
       <c r="D16" t="n">
-        <v>414.3789191552685</v>
+        <v>214.2961544880067</v>
       </c>
       <c r="E16" t="n">
-        <v>342.3105041702019</v>
+        <v>139.0912024191759</v>
       </c>
       <c r="F16" t="n">
-        <v>268.4749665389056</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>183.711309794082</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>111.7231559113068</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>114.1743233590098</v>
+        <v>111.1002033632126</v>
       </c>
       <c r="K16" t="n">
-        <v>277.8383027212834</v>
+        <v>271.690062729689</v>
       </c>
       <c r="L16" t="n">
-        <v>523.794880847415</v>
+        <v>514.5725208600234</v>
       </c>
       <c r="M16" t="n">
-        <v>791.9153974380108</v>
+        <v>779.6189174548219</v>
       </c>
       <c r="N16" t="n">
-        <v>1056.933969721552</v>
+        <v>1041.563369742566</v>
       </c>
       <c r="O16" t="n">
-        <v>1301.467675015592</v>
+        <v>1283.022955040808</v>
       </c>
       <c r="P16" t="n">
-        <v>1503.172779044502</v>
+        <v>1481.653939073921</v>
       </c>
       <c r="Q16" t="n">
-        <v>1588.423913666885</v>
+        <v>1563.830953700507</v>
       </c>
       <c r="R16" t="n">
-        <v>1548.013321455193</v>
+        <v>1563.830953700507</v>
       </c>
       <c r="S16" t="n">
-        <v>1428.687634793473</v>
+        <v>1441.368729955023</v>
       </c>
       <c r="T16" t="n">
-        <v>1428.687634793473</v>
+        <v>1286.003538195223</v>
       </c>
       <c r="U16" t="n">
-        <v>1226.739240191105</v>
+        <v>1080.918606509091</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.25029216766</v>
+        <v>895.293121401882</v>
       </c>
       <c r="W16" t="n">
-        <v>844.4102872545685</v>
+        <v>692.3165794050262</v>
       </c>
       <c r="X16" t="n">
-        <v>814.575641438499</v>
+        <v>538.5901172599761</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.9539774108732</v>
+        <v>395.8319161485862</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,22 +5674,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,13 +5786,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229859</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222405</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960402</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343043</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655135</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1833.765838259578</v>
+        <v>1835.186125039747</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.531018049696</v>
+        <v>1536.951304829866</v>
       </c>
       <c r="D26" t="n">
-        <v>1245.030570553552</v>
+        <v>1246.450857333722</v>
       </c>
       <c r="E26" t="n">
-        <v>937.3877269572854</v>
+        <v>938.808013737455</v>
       </c>
       <c r="F26" t="n">
-        <v>615.4339697744518</v>
+        <v>616.8542565546213</v>
       </c>
       <c r="G26" t="n">
-        <v>297.2118955496434</v>
+        <v>298.6321823298128</v>
       </c>
       <c r="H26" t="n">
-        <v>68.0695264033224</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="I26" t="n">
-        <v>68.0695264033224</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="J26" t="n">
-        <v>305.7706610417238</v>
+        <v>307.1909478218932</v>
       </c>
       <c r="K26" t="n">
-        <v>757.8043787987589</v>
+        <v>759.2246655789284</v>
       </c>
       <c r="L26" t="n">
-        <v>1300.776976321265</v>
+        <v>1345.59631902703</v>
       </c>
       <c r="M26" t="n">
-        <v>1846.777876365846</v>
+        <v>1917.792215374315</v>
       </c>
       <c r="N26" t="n">
-        <v>2374.589160003308</v>
+        <v>2445.603499011777</v>
       </c>
       <c r="O26" t="n">
-        <v>2814.628760895636</v>
+        <v>2885.643099904106</v>
       </c>
       <c r="P26" t="n">
-        <v>3162.816253027158</v>
+        <v>3233.830592035627</v>
       </c>
       <c r="Q26" t="n">
-        <v>3347.661813168107</v>
+        <v>3418.676152176576</v>
       </c>
       <c r="R26" t="n">
-        <v>3403.47632016612</v>
+        <v>3474.490659174589</v>
       </c>
       <c r="S26" t="n">
-        <v>3403.47632016612</v>
+        <v>3402.917785402828</v>
       </c>
       <c r="T26" t="n">
-        <v>3274.916399012725</v>
+        <v>3402.917785402828</v>
       </c>
       <c r="U26" t="n">
-        <v>3258.606336009569</v>
+        <v>3260.026622789739</v>
       </c>
       <c r="V26" t="n">
-        <v>3011.440208000276</v>
+        <v>3012.860494780446</v>
       </c>
       <c r="W26" t="n">
-        <v>2735.381854255752</v>
+        <v>2736.802141035922</v>
       </c>
       <c r="X26" t="n">
-        <v>2440.869930475997</v>
+        <v>2442.290217256167</v>
       </c>
       <c r="Y26" t="n">
-        <v>2139.319902683786</v>
+        <v>2140.740189463956</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C27" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D27" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E27" t="n">
-        <v>450.2458208358136</v>
+        <v>451.666107615983</v>
       </c>
       <c r="F27" t="n">
-        <v>325.8140147189454</v>
+        <v>327.2343014991148</v>
       </c>
       <c r="G27" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709792</v>
       </c>
       <c r="H27" t="n">
-        <v>117.4567803914108</v>
+        <v>118.8770671715802</v>
       </c>
       <c r="I27" t="n">
-        <v>68.0695264033224</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="J27" t="n">
-        <v>68.0695264033224</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="K27" t="n">
-        <v>387.8086724655489</v>
+        <v>389.2289592457182</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8086724655489</v>
+        <v>872.7950451440315</v>
       </c>
       <c r="M27" t="n">
-        <v>574.1203473061299</v>
+        <v>1231.318605296859</v>
       </c>
       <c r="N27" t="n">
-        <v>1229.898318516689</v>
+        <v>1231.318605296859</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.41860110767</v>
+        <v>1747.83888788784</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.039969824068</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.0347656543065</v>
+        <v>500.455052434477</v>
       </c>
       <c r="C28" t="n">
-        <v>423.7703290074844</v>
+        <v>425.1906157876545</v>
       </c>
       <c r="D28" t="n">
-        <v>363.0778971971878</v>
+        <v>364.4981839773576</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4597663435786</v>
+        <v>303.8800531237484</v>
       </c>
       <c r="F28" t="n">
-        <v>240.0745128437399</v>
+        <v>241.4947996239097</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7611402303738</v>
+        <v>168.1814270105436</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2232704790562</v>
+        <v>107.6435572592259</v>
       </c>
       <c r="I28" t="n">
-        <v>68.0695264033224</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3471455354583</v>
+        <v>132.7674323156276</v>
       </c>
       <c r="K28" t="n">
-        <v>306.2335483749734</v>
+        <v>307.6538351551428</v>
       </c>
       <c r="L28" t="n">
-        <v>563.4125499783462</v>
+        <v>564.8328367585159</v>
       </c>
       <c r="M28" t="n">
-        <v>842.7554900461834</v>
+        <v>844.1757768263532</v>
       </c>
       <c r="N28" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587135</v>
       </c>
       <c r="O28" t="n">
-        <v>1374.752614578247</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.153700184023</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.193392103788</v>
+        <v>1656.613678883959</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.317989573526</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.539619028948</v>
+        <v>1407.959905809119</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.041508558038</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.00284466605</v>
+        <v>1046.423131446221</v>
       </c>
       <c r="W28" t="n">
-        <v>856.6131238844164</v>
+        <v>858.0334106645867</v>
       </c>
       <c r="X28" t="n">
-        <v>717.4734829545878</v>
+        <v>718.8937697347582</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.3021030584194</v>
+        <v>590.7223898385898</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.162273879925</v>
+        <v>1878.582560660095</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.927453670044</v>
+        <v>1580.347740450213</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.4270061739</v>
+        <v>1289.847292954069</v>
       </c>
       <c r="E29" t="n">
-        <v>980.7841625776326</v>
+        <v>982.204449357802</v>
       </c>
       <c r="F29" t="n">
-        <v>658.8304053947987</v>
+        <v>660.2506921749681</v>
       </c>
       <c r="G29" t="n">
-        <v>340.6083311699903</v>
+        <v>342.0286179501596</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4659620236692</v>
+        <v>112.8862488038386</v>
       </c>
       <c r="I29" t="n">
-        <v>68.06952640332241</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="J29" t="n">
-        <v>305.7706610417238</v>
+        <v>307.1909478218932</v>
       </c>
       <c r="K29" t="n">
-        <v>757.8043787987589</v>
+        <v>759.2246655789284</v>
       </c>
       <c r="L29" t="n">
-        <v>1344.176032246861</v>
+        <v>1345.59631902703</v>
       </c>
       <c r="M29" t="n">
-        <v>1890.176932291442</v>
+        <v>1891.597219071611</v>
       </c>
       <c r="N29" t="n">
-        <v>2417.988215928904</v>
+        <v>2419.408502709073</v>
       </c>
       <c r="O29" t="n">
-        <v>2858.027816821232</v>
+        <v>2859.448103601402</v>
       </c>
       <c r="P29" t="n">
-        <v>3206.215308952754</v>
+        <v>3207.635595732923</v>
       </c>
       <c r="Q29" t="n">
-        <v>3391.060869093702</v>
+        <v>3418.676152176576</v>
       </c>
       <c r="R29" t="n">
-        <v>3403.47632016612</v>
+        <v>3474.490659174589</v>
       </c>
       <c r="S29" t="n">
-        <v>3331.903446394359</v>
+        <v>3402.917785402828</v>
       </c>
       <c r="T29" t="n">
-        <v>3203.343525240964</v>
+        <v>3303.423058410086</v>
       </c>
       <c r="U29" t="n">
-        <v>3042.531476962751</v>
+        <v>3303.423058410086</v>
       </c>
       <c r="V29" t="n">
-        <v>2795.365348953458</v>
+        <v>3056.256930400793</v>
       </c>
       <c r="W29" t="n">
-        <v>2778.778289876099</v>
+        <v>2780.198576656269</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.266366096344</v>
+        <v>2485.686652876514</v>
       </c>
       <c r="Y29" t="n">
-        <v>2182.716338304133</v>
+        <v>2184.136625084303</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C30" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D30" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E30" t="n">
-        <v>450.2458208358136</v>
+        <v>451.666107615983</v>
       </c>
       <c r="F30" t="n">
-        <v>325.8140147189454</v>
+        <v>327.2343014991148</v>
       </c>
       <c r="G30" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709792</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4567803914108</v>
+        <v>118.8770671715802</v>
       </c>
       <c r="I30" t="n">
-        <v>68.06952640332241</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="J30" t="n">
-        <v>181.1845086230498</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="K30" t="n">
-        <v>500.9236546852762</v>
+        <v>354.3459613267547</v>
       </c>
       <c r="L30" t="n">
-        <v>984.4897405835895</v>
+        <v>837.9120472250679</v>
       </c>
       <c r="M30" t="n">
-        <v>984.4897405835895</v>
+        <v>1465.683696851749</v>
       </c>
       <c r="N30" t="n">
-        <v>1229.898318516689</v>
+        <v>1465.683696851749</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.41860110767</v>
+        <v>1982.20397944273</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.039969824068</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W30" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.0347656543075</v>
+        <v>500.4550524344768</v>
       </c>
       <c r="C31" t="n">
-        <v>423.7703290074851</v>
+        <v>425.1906157876544</v>
       </c>
       <c r="D31" t="n">
-        <v>363.0778971971879</v>
+        <v>364.4981839773575</v>
       </c>
       <c r="E31" t="n">
-        <v>302.4597663435791</v>
+        <v>303.8800531237483</v>
       </c>
       <c r="F31" t="n">
-        <v>240.0745128437404</v>
+        <v>241.4947996239096</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7611402303742</v>
+        <v>168.1814270105434</v>
       </c>
       <c r="H31" t="n">
-        <v>106.2232704790565</v>
+        <v>107.6435572592256</v>
       </c>
       <c r="I31" t="n">
-        <v>68.06952640332241</v>
+        <v>69.48981318349179</v>
       </c>
       <c r="J31" t="n">
-        <v>131.3471455354583</v>
+        <v>132.7674323156277</v>
       </c>
       <c r="K31" t="n">
-        <v>306.2335483749734</v>
+        <v>307.6538351551428</v>
       </c>
       <c r="L31" t="n">
-        <v>563.4125499783463</v>
+        <v>564.8328367585159</v>
       </c>
       <c r="M31" t="n">
-        <v>842.7554900461837</v>
+        <v>844.1757768263533</v>
       </c>
       <c r="N31" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587136</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883958</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809118</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.041508558039</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.42313144622</v>
       </c>
       <c r="W31" t="n">
-        <v>856.6131238844173</v>
+        <v>858.0334106645864</v>
       </c>
       <c r="X31" t="n">
-        <v>717.4734829545888</v>
+        <v>718.8937697347578</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.3021030584205</v>
+        <v>590.7223898385897</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924223</v>
@@ -6737,13 +6737,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6868,16 +6868,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P34" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q34" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,34 +7157,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1634.317313094942</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229927</v>
+        <v>67.69877031229817</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222411</v>
+        <v>149.53381142224</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975446</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>649.0036093748192</v>
       </c>
       <c r="N2" t="n">
-        <v>666.1506338669933</v>
+        <v>268.0541090150961</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>375.1114765058381</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>459.1102495597946</v>
+        <v>407.6405246268087</v>
       </c>
       <c r="N3" t="n">
-        <v>602.4042553833758</v>
+        <v>584.6506706312587</v>
       </c>
       <c r="O3" t="n">
-        <v>609.7197014180981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>666.7571941269364</v>
+        <v>649.0036093748192</v>
       </c>
       <c r="N5" t="n">
-        <v>666.1506338669933</v>
+        <v>648.397049114876</v>
       </c>
       <c r="O5" t="n">
-        <v>166.6191907046895</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>185.8979214598153</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>133.8146399611116</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>609.4192645785211</v>
+        <v>591.6656798264039</v>
       </c>
       <c r="N6" t="n">
-        <v>602.4042553833758</v>
+        <v>389.7975494710494</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>591.9661166659808</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>452.0904133284578</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>543.2755872400996</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,10 +9243,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>291.5199566763059</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,19 +9717,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9957,13 +9957,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>280.5807329993938</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063262</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118428</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O39" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.8343050701094</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>41.62569392414285</v>
       </c>
       <c r="I11" t="n">
-        <v>54.29825255428628</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.53199851466705</v>
+        <v>173.6448807985004</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>259.1354197322698</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>287.7387232101484</v>
       </c>
       <c r="X11" t="n">
-        <v>302.9025858321002</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>50.76405573170272</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84757357049713</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>71.42128878233686</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>73.09718225498324</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.8880499742217</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>152.1891975235997</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>141.3306191002761</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>309.6934250108517</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>79.32119839402884</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>326.3756347727033</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>79.68771264356559</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.40342426721281</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>141.7152749449305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>173.6448807985004</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.8703088044314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>87.56441876785468</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>87.02119189030191</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>74.37344405687395</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.21315963804588</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>43.1116580025018</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>150.7063681292747</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>119.5477264527644</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>143.0569654223062</v>
+        <v>17.74167680847201</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24731,16 +24731,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>28.77454221904601</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>256.8765817204928</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>810133.6053093302</v>
+        <v>809061.5757169246</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>810133.6053093303</v>
+        <v>809061.5757169246</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755299.1080434647</v>
+        <v>749540.6038670754</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755299.1080434646</v>
+        <v>749540.6038670754</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800446.8682526831</v>
+        <v>806205.3724290719</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800446.8682526832</v>
+        <v>806205.372429072</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821916.612952882</v>
+        <v>821916.6129528821</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>504930.0986613991</v>
       </c>
       <c r="D2" t="n">
-        <v>504930.0986613994</v>
+        <v>504930.098661399</v>
       </c>
       <c r="E2" t="n">
-        <v>460518.4287217873</v>
+        <v>456679.4259375283</v>
       </c>
       <c r="F2" t="n">
-        <v>460518.4287217872</v>
+        <v>456679.4259375284</v>
       </c>
       <c r="G2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613985</v>
       </c>
       <c r="H2" t="n">
+        <v>504930.0986613985</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504930.0986613984</v>
+      </c>
+      <c r="J2" t="n">
+        <v>494455.9383121922</v>
+      </c>
+      <c r="K2" t="n">
+        <v>494455.9383121921</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504930.0986613985</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504930.0986613983</v>
+      </c>
+      <c r="N2" t="n">
         <v>504930.0986613989</v>
       </c>
-      <c r="I2" t="n">
-        <v>504930.0986613989</v>
-      </c>
-      <c r="J2" t="n">
-        <v>490616.935527933</v>
-      </c>
-      <c r="K2" t="n">
-        <v>490616.9355279328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504930.0986613983</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504930.0986613987</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504930.0986613982</v>
-      </c>
       <c r="O2" t="n">
-        <v>504930.0986613982</v>
+        <v>504930.0986613996</v>
       </c>
       <c r="P2" t="n">
-        <v>504930.0986613984</v>
+        <v>504930.0986613996</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173269.3627008162</v>
+        <v>167319.7281179324</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23104.65434918288</v>
+        <v>28619.45038073305</v>
       </c>
       <c r="E3" t="n">
-        <v>121384.3061055978</v>
+        <v>118900.1687352566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38163.5809051287</v>
+        <v>40647.7182754699</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191768.8730399279</v>
+        <v>189284.7356695867</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67258.53677814304</v>
+        <v>69742.67414848425</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989169</v>
+        <v>46121.92123989166</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>37029.43867432447</v>
+        <v>34545.30130398331</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227130.6514524139</v>
+        <v>230843.3799000342</v>
       </c>
       <c r="C4" t="n">
-        <v>227130.6514524138</v>
+        <v>230843.3799000342</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>150305.231024438</v>
+        <v>147167.313028413</v>
       </c>
       <c r="F4" t="n">
-        <v>150305.231024438</v>
+        <v>147167.313028413</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
-        <v>175176.4244224581</v>
+        <v>178378.6266706925</v>
       </c>
       <c r="K4" t="n">
-        <v>175176.4244224582</v>
+        <v>178378.6266706925</v>
       </c>
       <c r="L4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761036</v>
@@ -26457,7 +26457,7 @@
         <v>186364.8769761036</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65063.15426577591</v>
+        <v>63983.73631284719</v>
       </c>
       <c r="C5" t="n">
-        <v>65063.15426577591</v>
+        <v>63983.73631284719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>54159.30171162808</v>
+        <v>53898.25303089406</v>
       </c>
       <c r="F5" t="n">
-        <v>54159.30171162808</v>
+        <v>53898.25303089406</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59634.59252030633</v>
+        <v>60714.01047323507</v>
       </c>
       <c r="K5" t="n">
-        <v>59634.59252030634</v>
+        <v>60714.01047323507</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26503,13 +26503,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="O5" t="n">
         <v>58169.76931551967</v>
       </c>
-      <c r="O5" t="n">
-        <v>58169.76931551966</v>
-      </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39466.93024239306</v>
+        <v>42783.25433058523</v>
       </c>
       <c r="C6" t="n">
-        <v>212736.2929432093</v>
+        <v>210102.9824485178</v>
       </c>
       <c r="D6" t="n">
-        <v>200664.091730253</v>
+        <v>195149.2956987025</v>
       </c>
       <c r="E6" t="n">
-        <v>134669.5898801233</v>
+        <v>136541.3673118079</v>
       </c>
       <c r="F6" t="n">
-        <v>256053.8959857211</v>
+        <v>255441.5360470646</v>
       </c>
       <c r="G6" t="n">
-        <v>222231.8714646472</v>
+        <v>219747.7340943054</v>
       </c>
       <c r="H6" t="n">
+        <v>260395.4523697752</v>
+      </c>
+      <c r="I6" t="n">
+        <v>260395.4523697752</v>
+      </c>
+      <c r="J6" t="n">
+        <v>66041.15778314504</v>
+      </c>
+      <c r="K6" t="n">
+        <v>255325.8934527316</v>
+      </c>
+      <c r="L6" t="n">
+        <v>190652.778221291</v>
+      </c>
+      <c r="M6" t="n">
+        <v>214273.5311298835</v>
+      </c>
+      <c r="N6" t="n">
         <v>260395.4523697756</v>
       </c>
-      <c r="I6" t="n">
-        <v>260395.4523697757</v>
-      </c>
-      <c r="J6" t="n">
-        <v>64037.04554524062</v>
-      </c>
-      <c r="K6" t="n">
-        <v>255805.9185851683</v>
-      </c>
-      <c r="L6" t="n">
-        <v>193136.9155916321</v>
-      </c>
-      <c r="M6" t="n">
-        <v>214273.5311298838</v>
-      </c>
-      <c r="N6" t="n">
-        <v>260395.452369775</v>
-      </c>
       <c r="O6" t="n">
-        <v>223366.0136954506</v>
+        <v>225850.151065793</v>
       </c>
       <c r="P6" t="n">
-        <v>260395.4523697752</v>
+        <v>260395.4523697764</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="F2" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,7 +26710,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,16 +26805,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>850.86908004153</v>
+        <v>868.6226647936473</v>
       </c>
       <c r="K4" t="n">
-        <v>850.8690800415301</v>
+        <v>868.6226647936473</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014441</v>
@@ -26823,7 +26823,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.70447613141087</v>
+        <v>50.80964784433738</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.28679834290558</v>
+        <v>43.18162662997908</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>84.0731709726788</v>
+        <v>87.17834268560532</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.28679834290558</v>
+        <v>43.18162662997914</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.37998374008589</v>
+        <v>92.1335684922031</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.70447613141087</v>
+        <v>50.80964784433738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290558</v>
+        <v>43.18162662997908</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.37998374008589</v>
+        <v>92.1335684922031</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>168.5435925708354</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>98.62369033075771</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.1327661432765</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>115.5052447999871</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>61.26852848510406</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.39213203440094</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>30.74847594003768</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>216.0438351180968</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,13 +27701,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>46.60713309397067</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>25.07873592141422</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>92.68333097786581</v>
       </c>
       <c r="E7" t="n">
-        <v>152.9140835313142</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>161.4797355339884</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>68.95000301694967</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28014,10 +28014,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="C11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="D11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="E11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="F11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="G11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="H11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="I11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="T11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="U11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="V11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="W11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="X11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="C13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="D13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="E13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="F13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="G13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="H13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="I13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="J13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="K13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="L13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="M13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="N13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="O13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="P13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="R13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="S13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="T13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="U13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="V13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="W13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="X13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="C14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="D14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="E14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="F14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="G14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="H14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="I14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="T14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="U14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="V14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="W14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="X14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="C16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="D16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="E16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="F16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="G16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="H16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="I16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="J16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="K16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="L16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="M16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="N16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="O16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="P16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="R16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="S16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="T16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="U16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="V16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="W16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="X16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.65549318417354</v>
+        <v>79.550321471247</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634528339</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,13 +28758,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,22 +28980,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>35.71049010668769</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668742</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,10 +29235,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29302,10 +29302,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>50.15384424644174</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>26.45959222495378</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29509,37 +29509,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29554,31 +29554,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>26.45959222495381</v>
       </c>
       <c r="R29" t="n">
-        <v>50.15384424644228</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29940,10 +29940,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,7 +29952,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30165,22 +30165,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>35.71049010668816</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>35.71049010668753</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="42">
@@ -30615,43 +30615,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668811</v>
+        <v>35.71049010668699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,19 +30882,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634529149</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634527685</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>499.278557777092</v>
       </c>
       <c r="N2" t="n">
-        <v>517.0321425292092</v>
+        <v>118.9356176773119</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>224.8100292649129</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>366.7231275104827</v>
+        <v>315.2534025774967</v>
       </c>
       <c r="N3" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="O3" t="n">
-        <v>517.0321425292092</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="N5" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="O5" t="n">
-        <v>17.05535328059309</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>35.59647421889007</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>43.75429310419337</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>517.0321425292092</v>
+        <v>499.278557777092</v>
       </c>
       <c r="N6" t="n">
-        <v>517.0321425292092</v>
+        <v>304.4254366168827</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>499.278557777092</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>309.0320101492204</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58100571201447</v>
+        <v>49.47583399908793</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3171508709835</v>
+        <v>162.211979158057</v>
       </c>
       <c r="L13" t="n">
-        <v>248.4409880061935</v>
+        <v>245.335816293267</v>
       </c>
       <c r="M13" t="n">
-        <v>270.8288046369655</v>
+        <v>267.723632924039</v>
       </c>
       <c r="N13" t="n">
-        <v>267.6955275591323</v>
+        <v>264.5903558462058</v>
       </c>
       <c r="O13" t="n">
-        <v>247.0037427212524</v>
+        <v>243.8985710083259</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7425293221317</v>
+        <v>200.6373576092052</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.11225719432602</v>
+        <v>83.00708548139949</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>453.2152403831814</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58100571201447</v>
+        <v>49.47583399908793</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3171508709835</v>
+        <v>162.211979158057</v>
       </c>
       <c r="L16" t="n">
-        <v>248.4409880061935</v>
+        <v>245.335816293267</v>
       </c>
       <c r="M16" t="n">
-        <v>270.8288046369655</v>
+        <v>267.723632924039</v>
       </c>
       <c r="N16" t="n">
-        <v>267.6955275591323</v>
+        <v>264.5903558462058</v>
       </c>
       <c r="O16" t="n">
-        <v>247.0037427212524</v>
+        <v>243.8985710083259</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7425293221317</v>
+        <v>200.6373576092052</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.11225719432602</v>
+        <v>83.00708548139949</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133831</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,13 +36054,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477934977</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,10 +36288,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528348</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>548.4571692146527</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>577.9756528760453</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36677,13 +36677,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>188.1936109500819</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36850,10 +36850,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>213.1722792360129</v>
       </c>
       <c r="R29" t="n">
-        <v>12.540859669109</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729928</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>313.3380164832366</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37248,7 +37248,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>200.0587396437664</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O39" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529037</v>
+        <v>5.636002634527918</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38178,19 +38178,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094879</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724859</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
